--- a/2021-22_NBA_Team_Stats.xlsx
+++ b/2021-22_NBA_Team_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="720">
   <si>
     <t>Ranking</t>
   </si>
@@ -25,6 +25,81 @@
     <t>Games Played</t>
   </si>
   <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Win Percentage</t>
+  </si>
+  <si>
+    <t>Minutes Played</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Field Goals Made</t>
+  </si>
+  <si>
+    <t>Field Goals Attempted</t>
+  </si>
+  <si>
+    <t>Field Goals Percentage</t>
+  </si>
+  <si>
+    <t>3 Point Field Goals Made</t>
+  </si>
+  <si>
+    <t>3 Point Field Goals Attempted</t>
+  </si>
+  <si>
+    <t>3 Point Field Goals Percentage</t>
+  </si>
+  <si>
+    <t>Free Throws Made</t>
+  </si>
+  <si>
+    <t>Free Throws Attempted</t>
+  </si>
+  <si>
+    <t>Free Throws Percentage</t>
+  </si>
+  <si>
+    <t>Offensive Rebounds</t>
+  </si>
+  <si>
+    <t>Defensive Rebounds</t>
+  </si>
+  <si>
+    <t>Rebounds</t>
+  </si>
+  <si>
+    <t>Assists</t>
+  </si>
+  <si>
+    <t>Turnovers</t>
+  </si>
+  <si>
+    <t>Steals</t>
+  </si>
+  <si>
+    <t>Blocks</t>
+  </si>
+  <si>
+    <t>Blocks Against</t>
+  </si>
+  <si>
+    <t>Personal Fouls</t>
+  </si>
+  <si>
+    <t>Personal Fouls Drawn</t>
+  </si>
+  <si>
+    <t>Plus-Minus</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -185,6 +260,1920 @@
   </si>
   <si>
     <t>82</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>.780</t>
+  </si>
+  <si>
+    <t>.683</t>
+  </si>
+  <si>
+    <t>.646</t>
+  </si>
+  <si>
+    <t>.634</t>
+  </si>
+  <si>
+    <t>.622</t>
+  </si>
+  <si>
+    <t>.598</t>
+  </si>
+  <si>
+    <t>.585</t>
+  </si>
+  <si>
+    <t>.561</t>
+  </si>
+  <si>
+    <t>.537</t>
+  </si>
+  <si>
+    <t>.524</t>
+  </si>
+  <si>
+    <t>.512</t>
+  </si>
+  <si>
+    <t>.451</t>
+  </si>
+  <si>
+    <t>.439</t>
+  </si>
+  <si>
+    <t>.427</t>
+  </si>
+  <si>
+    <t>.415</t>
+  </si>
+  <si>
+    <t>.402</t>
+  </si>
+  <si>
+    <t>.366</t>
+  </si>
+  <si>
+    <t>.329</t>
+  </si>
+  <si>
+    <t>.305</t>
+  </si>
+  <si>
+    <t>.293</t>
+  </si>
+  <si>
+    <t>.280</t>
+  </si>
+  <si>
+    <t>.268</t>
+  </si>
+  <si>
+    <t>.244</t>
+  </si>
+  <si>
+    <t>3946</t>
+  </si>
+  <si>
+    <t>3956</t>
+  </si>
+  <si>
+    <t>3971</t>
+  </si>
+  <si>
+    <t>3951</t>
+  </si>
+  <si>
+    <t>3981</t>
+  </si>
+  <si>
+    <t>3961</t>
+  </si>
+  <si>
+    <t>3941</t>
+  </si>
+  <si>
+    <t>3976</t>
+  </si>
+  <si>
+    <t>3966</t>
+  </si>
+  <si>
+    <t>3996</t>
+  </si>
+  <si>
+    <t>9416</t>
+  </si>
+  <si>
+    <t>9480</t>
+  </si>
+  <si>
+    <t>9102</t>
+  </si>
+  <si>
+    <t>9022</t>
+  </si>
+  <si>
+    <t>8858</t>
+  </si>
+  <si>
+    <t>9164</t>
+  </si>
+  <si>
+    <t>9470</t>
+  </si>
+  <si>
+    <t>9015</t>
+  </si>
+  <si>
+    <t>9316</t>
+  </si>
+  <si>
+    <t>9243</t>
+  </si>
+  <si>
+    <t>8970</t>
+  </si>
+  <si>
+    <t>9152</t>
+  </si>
+  <si>
+    <t>9507</t>
+  </si>
+  <si>
+    <t>9258</t>
+  </si>
+  <si>
+    <t>8839</t>
+  </si>
+  <si>
+    <t>9343</t>
+  </si>
+  <si>
+    <t>9457</t>
+  </si>
+  <si>
+    <t>8890</t>
+  </si>
+  <si>
+    <t>8731</t>
+  </si>
+  <si>
+    <t>8962</t>
+  </si>
+  <si>
+    <t>8907</t>
+  </si>
+  <si>
+    <t>9279</t>
+  </si>
+  <si>
+    <t>9192</t>
+  </si>
+  <si>
+    <t>9045</t>
+  </si>
+  <si>
+    <t>8711</t>
+  </si>
+  <si>
+    <t>9140</t>
+  </si>
+  <si>
+    <t>8506</t>
+  </si>
+  <si>
+    <t>8596</t>
+  </si>
+  <si>
+    <t>8547</t>
+  </si>
+  <si>
+    <t>8997</t>
+  </si>
+  <si>
+    <t>3581</t>
+  </si>
+  <si>
+    <t>3571</t>
+  </si>
+  <si>
+    <t>3323</t>
+  </si>
+  <si>
+    <t>3246</t>
+  </si>
+  <si>
+    <t>3222</t>
+  </si>
+  <si>
+    <t>3341</t>
+  </si>
+  <si>
+    <t>3429</t>
+  </si>
+  <si>
+    <t>3230</t>
+  </si>
+  <si>
+    <t>3327</t>
+  </si>
+  <si>
+    <t>3416</t>
+  </si>
+  <si>
+    <t>3332</t>
+  </si>
+  <si>
+    <t>3422</t>
+  </si>
+  <si>
+    <t>3411</t>
+  </si>
+  <si>
+    <t>3442</t>
+  </si>
+  <si>
+    <t>3255</t>
+  </si>
+  <si>
+    <t>3401</t>
+  </si>
+  <si>
+    <t>3508</t>
+  </si>
+  <si>
+    <t>3285</t>
+  </si>
+  <si>
+    <t>3088</t>
+  </si>
+  <si>
+    <t>3294</t>
+  </si>
+  <si>
+    <t>3546</t>
+  </si>
+  <si>
+    <t>3415</t>
+  </si>
+  <si>
+    <t>3321</t>
+  </si>
+  <si>
+    <t>3161</t>
+  </si>
+  <si>
+    <t>3398</t>
+  </si>
+  <si>
+    <t>3141</t>
+  </si>
+  <si>
+    <t>3129</t>
+  </si>
+  <si>
+    <t>3139</t>
+  </si>
+  <si>
+    <t>3229</t>
+  </si>
+  <si>
+    <t>7389</t>
+  </si>
+  <si>
+    <t>7739</t>
+  </si>
+  <si>
+    <t>7087</t>
+  </si>
+  <si>
+    <t>6954</t>
+  </si>
+  <si>
+    <t>6982</t>
+  </si>
+  <si>
+    <t>7167</t>
+  </si>
+  <si>
+    <t>7331</t>
+  </si>
+  <si>
+    <t>6932</t>
+  </si>
+  <si>
+    <t>7067</t>
+  </si>
+  <si>
+    <t>7079</t>
+  </si>
+  <si>
+    <t>7489</t>
+  </si>
+  <si>
+    <t>7127</t>
+  </si>
+  <si>
+    <t>7458</t>
+  </si>
+  <si>
+    <t>7251</t>
+  </si>
+  <si>
+    <t>6940</t>
+  </si>
+  <si>
+    <t>7241</t>
+  </si>
+  <si>
+    <t>7497</t>
+  </si>
+  <si>
+    <t>7170</t>
+  </si>
+  <si>
+    <t>7069</t>
+  </si>
+  <si>
+    <t>7212</t>
+  </si>
+  <si>
+    <t>7056</t>
+  </si>
+  <si>
+    <t>7601</t>
+  </si>
+  <si>
+    <t>7279</t>
+  </si>
+  <si>
+    <t>7223</t>
+  </si>
+  <si>
+    <t>7144</t>
+  </si>
+  <si>
+    <t>7338</t>
+  </si>
+  <si>
+    <t>7310</t>
+  </si>
+  <si>
+    <t>7267</t>
+  </si>
+  <si>
+    <t>7240</t>
+  </si>
+  <si>
+    <t>7083</t>
+  </si>
+  <si>
+    <t>48.5</t>
+  </si>
+  <si>
+    <t>46.1</t>
+  </si>
+  <si>
+    <t>46.9</t>
+  </si>
+  <si>
+    <t>46.7</t>
+  </si>
+  <si>
+    <t>46.6</t>
+  </si>
+  <si>
+    <t>46.8</t>
+  </si>
+  <si>
+    <t>47.1</t>
+  </si>
+  <si>
+    <t>48.3</t>
+  </si>
+  <si>
+    <t>44.5</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>45.7</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>45.8</t>
+  </si>
+  <si>
+    <t>43.7</t>
+  </si>
+  <si>
+    <t>47.2</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>44.2</t>
+  </si>
+  <si>
+    <t>46.3</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>43.1</t>
+  </si>
+  <si>
+    <t>43.4</t>
+  </si>
+  <si>
+    <t>45.6</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>1153</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>1192</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>872</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>873</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>1043</t>
+  </si>
+  <si>
+    <t>997</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>2616</t>
+  </si>
+  <si>
+    <t>2679</t>
+  </si>
+  <si>
+    <t>3231</t>
+  </si>
+  <si>
+    <t>2936</t>
+  </si>
+  <si>
+    <t>3063</t>
+  </si>
+  <si>
+    <t>3044</t>
+  </si>
+  <si>
+    <t>3151</t>
+  </si>
+  <si>
+    <t>2608</t>
+  </si>
+  <si>
+    <t>3308</t>
+  </si>
+  <si>
+    <t>2944</t>
+  </si>
+  <si>
+    <t>2808</t>
+  </si>
+  <si>
+    <t>2364</t>
+  </si>
+  <si>
+    <t>3386</t>
+  </si>
+  <si>
+    <t>2602</t>
+  </si>
+  <si>
+    <t>2686</t>
+  </si>
+  <si>
+    <t>2821</t>
+  </si>
+  <si>
+    <t>3130</t>
+  </si>
+  <si>
+    <t>2802</t>
+  </si>
+  <si>
+    <t>3029</t>
+  </si>
+  <si>
+    <t>2629</t>
+  </si>
+  <si>
+    <t>2512</t>
+  </si>
+  <si>
+    <t>2626</t>
+  </si>
+  <si>
+    <t>2826</t>
+  </si>
+  <si>
+    <t>2722</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>2899</t>
+  </si>
+  <si>
+    <t>3066</t>
+  </si>
+  <si>
+    <t>2838</t>
+  </si>
+  <si>
+    <t>3022</t>
+  </si>
+  <si>
+    <t>3170</t>
+  </si>
+  <si>
+    <t>36.4</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>37.9</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>35.6</t>
+  </si>
+  <si>
+    <t>36.6</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>34.9</t>
+  </si>
+  <si>
+    <t>36.9</t>
+  </si>
+  <si>
+    <t>35.8</t>
+  </si>
+  <si>
+    <t>36.1</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>35.7</t>
+  </si>
+  <si>
+    <t>33.2</t>
+  </si>
+  <si>
+    <t>34.2</t>
+  </si>
+  <si>
+    <t>35.2</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
+    <t>34.4</t>
+  </si>
+  <si>
+    <t>34.6</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>32.6</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>1303</t>
+  </si>
+  <si>
+    <t>1393</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>1416</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>1459</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1470</t>
+  </si>
+  <si>
+    <t>1372</t>
+  </si>
+  <si>
+    <t>1327</t>
+  </si>
+  <si>
+    <t>1436</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>1434</t>
+  </si>
+  <si>
+    <t>1376</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>1298</t>
+  </si>
+  <si>
+    <t>1273</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>1501</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>1466</t>
+  </si>
+  <si>
+    <t>1346</t>
+  </si>
+  <si>
+    <t>1347</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>1413</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>1898</t>
+  </si>
+  <si>
+    <t>1665</t>
+  </si>
+  <si>
+    <t>1753</t>
+  </si>
+  <si>
+    <t>1739</t>
+  </si>
+  <si>
+    <t>1713</t>
+  </si>
+  <si>
+    <t>1881</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>1916</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>1749</t>
+  </si>
+  <si>
+    <t>1766</t>
+  </si>
+  <si>
+    <t>1894</t>
+  </si>
+  <si>
+    <t>1781</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1829</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1778</t>
+  </si>
+  <si>
+    <t>1673</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t>1754</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1614</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>79.7</t>
+  </si>
+  <si>
+    <t>73.4</t>
+  </si>
+  <si>
+    <t>76.9</t>
+  </si>
+  <si>
+    <t>80.8</t>
+  </si>
+  <si>
+    <t>77.1</t>
+  </si>
+  <si>
+    <t>81.6</t>
+  </si>
+  <si>
+    <t>77.6</t>
+  </si>
+  <si>
+    <t>82.1</t>
+  </si>
+  <si>
+    <t>76.7</t>
+  </si>
+  <si>
+    <t>79.5</t>
+  </si>
+  <si>
+    <t>75.9</t>
+  </si>
+  <si>
+    <t>81.3</t>
+  </si>
+  <si>
+    <t>77.8</t>
+  </si>
+  <si>
+    <t>80.5</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>81.2</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>79.3</t>
+  </si>
+  <si>
+    <t>74.4</t>
+  </si>
+  <si>
+    <t>78.9</t>
+  </si>
+  <si>
+    <t>78.3</t>
+  </si>
+  <si>
+    <t>75.4</t>
+  </si>
+  <si>
+    <t>73.2</t>
+  </si>
+  <si>
+    <t>76.8</t>
+  </si>
+  <si>
+    <t>75.6</t>
+  </si>
+  <si>
+    <t>78.2</t>
+  </si>
+  <si>
+    <t>78.7</t>
+  </si>
+  <si>
+    <t>71.3</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>844</t>
+  </si>
+  <si>
+    <t>837</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>941</t>
+  </si>
+  <si>
+    <t>981</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>2913</t>
+  </si>
+  <si>
+    <t>2873</t>
+  </si>
+  <si>
+    <t>2930</t>
+  </si>
+  <si>
+    <t>2778</t>
+  </si>
+  <si>
+    <t>2769</t>
+  </si>
+  <si>
+    <t>2915</t>
+  </si>
+  <si>
+    <t>2990</t>
+  </si>
+  <si>
+    <t>2770</t>
+  </si>
+  <si>
+    <t>2916</t>
+  </si>
+  <si>
+    <t>2865</t>
+  </si>
+  <si>
+    <t>2622</t>
+  </si>
+  <si>
+    <t>2760</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>2796</t>
+  </si>
+  <si>
+    <t>2786</t>
+  </si>
+  <si>
+    <t>2783</t>
+  </si>
+  <si>
+    <t>2767</t>
+  </si>
+  <si>
+    <t>2860</t>
+  </si>
+  <si>
+    <t>2841</t>
+  </si>
+  <si>
+    <t>2726</t>
+  </si>
+  <si>
+    <t>2798</t>
+  </si>
+  <si>
+    <t>2815</t>
+  </si>
+  <si>
+    <t>2737</t>
+  </si>
+  <si>
+    <t>2661</t>
+  </si>
+  <si>
+    <t>2671</t>
+  </si>
+  <si>
+    <t>2887</t>
+  </si>
+  <si>
+    <t>2625</t>
+  </si>
+  <si>
+    <t>2885</t>
+  </si>
+  <si>
+    <t>2660</t>
+  </si>
+  <si>
+    <t>3714</t>
+  </si>
+  <si>
+    <t>4032</t>
+  </si>
+  <si>
+    <t>3730</t>
+  </si>
+  <si>
+    <t>3585</t>
+  </si>
+  <si>
+    <t>3528</t>
+  </si>
+  <si>
+    <t>3778</t>
+  </si>
+  <si>
+    <t>3830</t>
+  </si>
+  <si>
+    <t>3470</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>3617</t>
+  </si>
+  <si>
+    <t>3717</t>
+  </si>
+  <si>
+    <t>3471</t>
+  </si>
+  <si>
+    <t>3621</t>
+  </si>
+  <si>
+    <t>3640</t>
+  </si>
+  <si>
+    <t>3623</t>
+  </si>
+  <si>
+    <t>3606</t>
+  </si>
+  <si>
+    <t>3655</t>
+  </si>
+  <si>
+    <t>3607</t>
+  </si>
+  <si>
+    <t>3782</t>
+  </si>
+  <si>
+    <t>3707</t>
+  </si>
+  <si>
+    <t>3535</t>
+  </si>
+  <si>
+    <t>3716</t>
+  </si>
+  <si>
+    <t>3608</t>
+  </si>
+  <si>
+    <t>3521</t>
+  </si>
+  <si>
+    <t>3515</t>
+  </si>
+  <si>
+    <t>3596</t>
+  </si>
+  <si>
+    <t>3741</t>
+  </si>
+  <si>
+    <t>3525</t>
+  </si>
+  <si>
+    <t>3631</t>
+  </si>
+  <si>
+    <t>3446</t>
+  </si>
+  <si>
+    <t>2244</t>
+  </si>
+  <si>
+    <t>2131</t>
+  </si>
+  <si>
+    <t>2223</t>
+  </si>
+  <si>
+    <t>2090</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1945</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>2279</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2071</t>
+  </si>
+  <si>
+    <t>2064</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2052</t>
+  </si>
+  <si>
+    <t>2289</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>1880</t>
+  </si>
+  <si>
+    <t>2081</t>
+  </si>
+  <si>
+    <t>1822</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>1175</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>1187</t>
+  </si>
+  <si>
+    <t>1183</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>1163</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>1351</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>1633</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>1723</t>
+  </si>
+  <si>
+    <t>1679</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>1494</t>
+  </si>
+  <si>
+    <t>1590</t>
+  </si>
+  <si>
+    <t>1547</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>1786</t>
+  </si>
+  <si>
+    <t>1670</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>1534</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>1528</t>
+  </si>
+  <si>
+    <t>1672</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>1483</t>
+  </si>
+  <si>
+    <t>1654</t>
+  </si>
+  <si>
+    <t>1552</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>1675</t>
+  </si>
+  <si>
+    <t>1497</t>
+  </si>
+  <si>
+    <t>1799</t>
+  </si>
+  <si>
+    <t>1692</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>1686</t>
+  </si>
+  <si>
+    <t>1645</t>
+  </si>
+  <si>
+    <t>1592</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>1664</t>
+  </si>
+  <si>
+    <t>1563</t>
+  </si>
+  <si>
+    <t>1489</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>1638</t>
+  </si>
+  <si>
+    <t>1668</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>1671</t>
+  </si>
+  <si>
+    <t>1681</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>1647</t>
+  </si>
+  <si>
+    <t>1589</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>-32</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>-81</t>
+  </si>
+  <si>
+    <t>-277</t>
+  </si>
+  <si>
+    <t>-250</t>
+  </si>
+  <si>
+    <t>-448</t>
+  </si>
+  <si>
+    <t>-728</t>
+  </si>
+  <si>
+    <t>-285</t>
+  </si>
+  <si>
+    <t>-664</t>
+  </si>
+  <si>
+    <t>-633</t>
+  </si>
+  <si>
+    <t>-656</t>
+  </si>
+  <si>
+    <t>-695</t>
   </si>
 </sst>
 </file>
@@ -542,13 +2531,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,335 +2547,2660 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" t="s">
+        <v>255</v>
+      </c>
+      <c r="M2" t="s">
+        <v>284</v>
+      </c>
+      <c r="N2" t="s">
+        <v>314</v>
+      </c>
+      <c r="O2" t="s">
+        <v>338</v>
+      </c>
+      <c r="P2" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>395</v>
+      </c>
+      <c r="R2" t="s">
+        <v>423</v>
+      </c>
+      <c r="S2" t="s">
+        <v>451</v>
+      </c>
+      <c r="T2" t="s">
+        <v>480</v>
+      </c>
+      <c r="U2" t="s">
+        <v>510</v>
+      </c>
+      <c r="V2" t="s">
+        <v>540</v>
+      </c>
+      <c r="W2" t="s">
+        <v>565</v>
+      </c>
+      <c r="X2" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>671</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L3" t="s">
+        <v>256</v>
+      </c>
+      <c r="M3" t="s">
+        <v>285</v>
+      </c>
+      <c r="N3" t="s">
+        <v>315</v>
+      </c>
+      <c r="O3" t="s">
+        <v>339</v>
+      </c>
+      <c r="P3" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>396</v>
+      </c>
+      <c r="R3" t="s">
+        <v>424</v>
+      </c>
+      <c r="S3" t="s">
+        <v>452</v>
+      </c>
+      <c r="T3" t="s">
+        <v>481</v>
+      </c>
+      <c r="U3" t="s">
+        <v>511</v>
+      </c>
+      <c r="V3" t="s">
+        <v>273</v>
+      </c>
+      <c r="W3" t="s">
+        <v>425</v>
+      </c>
+      <c r="X3" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>620</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>672</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" t="s">
+        <v>286</v>
+      </c>
+      <c r="N4" t="s">
+        <v>314</v>
+      </c>
+      <c r="O4" t="s">
+        <v>340</v>
+      </c>
+      <c r="P4" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>397</v>
+      </c>
+      <c r="R4" t="s">
+        <v>425</v>
+      </c>
+      <c r="S4" t="s">
+        <v>453</v>
+      </c>
+      <c r="T4" t="s">
+        <v>482</v>
+      </c>
+      <c r="U4" t="s">
+        <v>512</v>
+      </c>
+      <c r="V4" t="s">
+        <v>541</v>
+      </c>
+      <c r="W4" t="s">
+        <v>566</v>
+      </c>
+      <c r="X4" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>621</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>645</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" t="s">
+        <v>235</v>
+      </c>
+      <c r="L5" t="s">
+        <v>258</v>
+      </c>
+      <c r="M5" t="s">
+        <v>287</v>
+      </c>
+      <c r="N5" t="s">
+        <v>316</v>
+      </c>
+      <c r="O5" t="s">
+        <v>341</v>
+      </c>
+      <c r="P5" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>398</v>
+      </c>
+      <c r="R5" t="s">
+        <v>426</v>
+      </c>
+      <c r="S5" t="s">
+        <v>454</v>
+      </c>
+      <c r="T5" t="s">
+        <v>483</v>
+      </c>
+      <c r="U5" t="s">
+        <v>513</v>
+      </c>
+      <c r="V5" t="s">
+        <v>542</v>
+      </c>
+      <c r="W5" t="s">
+        <v>567</v>
+      </c>
+      <c r="X5" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>646</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>673</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" t="s">
+        <v>233</v>
+      </c>
+      <c r="L6" t="s">
+        <v>259</v>
+      </c>
+      <c r="M6" t="s">
+        <v>288</v>
+      </c>
+      <c r="N6" t="s">
+        <v>317</v>
+      </c>
+      <c r="O6" t="s">
+        <v>342</v>
+      </c>
+      <c r="P6" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>399</v>
+      </c>
+      <c r="R6" t="s">
+        <v>427</v>
+      </c>
+      <c r="S6" t="s">
+        <v>455</v>
+      </c>
+      <c r="T6" t="s">
+        <v>484</v>
+      </c>
+      <c r="U6" t="s">
+        <v>514</v>
+      </c>
+      <c r="V6" t="s">
+        <v>543</v>
+      </c>
+      <c r="W6" t="s">
+        <v>568</v>
+      </c>
+      <c r="X6" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>647</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>56</v>
       </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M7" t="s">
+        <v>289</v>
+      </c>
+      <c r="N7" t="s">
+        <v>318</v>
+      </c>
+      <c r="O7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>400</v>
+      </c>
+      <c r="R7" t="s">
+        <v>428</v>
+      </c>
+      <c r="S7" t="s">
+        <v>456</v>
+      </c>
+      <c r="T7" t="s">
+        <v>485</v>
+      </c>
+      <c r="U7" t="s">
+        <v>515</v>
+      </c>
+      <c r="V7" t="s">
+        <v>544</v>
+      </c>
+      <c r="W7" t="s">
+        <v>569</v>
+      </c>
+      <c r="X7" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>675</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>699</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
+    <row r="8" spans="1:28">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" t="s">
+        <v>237</v>
+      </c>
+      <c r="L8" t="s">
+        <v>261</v>
+      </c>
+      <c r="M8" t="s">
+        <v>290</v>
+      </c>
+      <c r="N8" t="s">
+        <v>319</v>
+      </c>
+      <c r="O8" t="s">
+        <v>344</v>
+      </c>
+      <c r="P8" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>401</v>
+      </c>
+      <c r="R8" t="s">
+        <v>429</v>
+      </c>
+      <c r="S8" t="s">
+        <v>457</v>
+      </c>
+      <c r="T8" t="s">
+        <v>486</v>
+      </c>
+      <c r="U8" t="s">
+        <v>516</v>
+      </c>
+      <c r="V8" t="s">
+        <v>545</v>
+      </c>
+      <c r="W8" t="s">
+        <v>570</v>
+      </c>
+      <c r="X8" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>624</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>649</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
+    <row r="9" spans="1:28">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" t="s">
+        <v>236</v>
+      </c>
+      <c r="L9" t="s">
+        <v>262</v>
+      </c>
+      <c r="M9" t="s">
+        <v>291</v>
+      </c>
+      <c r="N9" t="s">
+        <v>314</v>
+      </c>
+      <c r="O9" t="s">
+        <v>345</v>
+      </c>
+      <c r="P9" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>402</v>
+      </c>
+      <c r="R9" t="s">
+        <v>430</v>
+      </c>
+      <c r="S9" t="s">
+        <v>458</v>
+      </c>
+      <c r="T9" t="s">
+        <v>487</v>
+      </c>
+      <c r="U9" t="s">
+        <v>517</v>
+      </c>
+      <c r="V9" t="s">
+        <v>546</v>
+      </c>
+      <c r="W9" t="s">
+        <v>571</v>
+      </c>
+      <c r="X9" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>701</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" t="s">
+        <v>238</v>
+      </c>
+      <c r="L10" t="s">
+        <v>263</v>
+      </c>
+      <c r="M10" t="s">
+        <v>292</v>
+      </c>
+      <c r="N10" t="s">
+        <v>320</v>
+      </c>
+      <c r="O10" t="s">
+        <v>346</v>
+      </c>
+      <c r="P10" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>403</v>
+      </c>
+      <c r="R10" t="s">
+        <v>431</v>
+      </c>
+      <c r="S10" t="s">
+        <v>459</v>
+      </c>
+      <c r="T10" t="s">
+        <v>488</v>
+      </c>
+      <c r="U10" t="s">
+        <v>518</v>
+      </c>
+      <c r="V10" t="s">
+        <v>547</v>
+      </c>
+      <c r="W10" t="s">
+        <v>572</v>
+      </c>
+      <c r="X10" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" t="s">
+        <v>264</v>
+      </c>
+      <c r="M11" t="s">
+        <v>293</v>
+      </c>
+      <c r="N11" t="s">
+        <v>315</v>
+      </c>
+      <c r="O11" t="s">
+        <v>347</v>
+      </c>
+      <c r="P11" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>404</v>
+      </c>
+      <c r="R11" t="s">
+        <v>432</v>
+      </c>
+      <c r="S11" t="s">
+        <v>460</v>
+      </c>
+      <c r="T11" t="s">
+        <v>489</v>
+      </c>
+      <c r="U11" t="s">
+        <v>519</v>
+      </c>
+      <c r="V11" t="s">
+        <v>548</v>
+      </c>
+      <c r="W11" t="s">
+        <v>573</v>
+      </c>
+      <c r="X11" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>652</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J12" t="s">
+        <v>212</v>
+      </c>
+      <c r="K12" t="s">
+        <v>240</v>
+      </c>
+      <c r="L12" t="s">
+        <v>265</v>
+      </c>
+      <c r="M12" t="s">
+        <v>294</v>
+      </c>
+      <c r="N12" t="s">
+        <v>321</v>
+      </c>
+      <c r="O12" t="s">
+        <v>348</v>
+      </c>
+      <c r="P12" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>405</v>
+      </c>
+      <c r="R12" t="s">
+        <v>433</v>
+      </c>
+      <c r="S12" t="s">
+        <v>461</v>
+      </c>
+      <c r="T12" t="s">
+        <v>490</v>
+      </c>
+      <c r="U12" t="s">
+        <v>520</v>
+      </c>
+      <c r="V12" t="s">
+        <v>549</v>
+      </c>
+      <c r="W12" t="s">
+        <v>574</v>
+      </c>
+      <c r="X12" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>653</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" t="s">
+        <v>241</v>
+      </c>
+      <c r="L13" t="s">
+        <v>266</v>
+      </c>
+      <c r="M13" t="s">
+        <v>295</v>
+      </c>
+      <c r="N13" t="s">
+        <v>322</v>
+      </c>
+      <c r="O13" t="s">
+        <v>349</v>
+      </c>
+      <c r="P13" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>406</v>
+      </c>
+      <c r="R13" t="s">
+        <v>434</v>
+      </c>
+      <c r="S13" t="s">
+        <v>462</v>
+      </c>
+      <c r="T13" t="s">
+        <v>491</v>
+      </c>
+      <c r="U13" t="s">
+        <v>521</v>
+      </c>
+      <c r="V13" t="s">
+        <v>550</v>
+      </c>
+      <c r="W13" t="s">
+        <v>575</v>
+      </c>
+      <c r="X13" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>629</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>654</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" t="s">
+        <v>242</v>
+      </c>
+      <c r="L14" t="s">
+        <v>267</v>
+      </c>
+      <c r="M14" t="s">
+        <v>296</v>
+      </c>
+      <c r="N14" t="s">
+        <v>323</v>
+      </c>
+      <c r="O14" t="s">
+        <v>350</v>
+      </c>
+      <c r="P14" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>407</v>
+      </c>
+      <c r="R14" t="s">
+        <v>435</v>
+      </c>
+      <c r="S14" t="s">
+        <v>463</v>
+      </c>
+      <c r="T14" t="s">
+        <v>492</v>
+      </c>
+      <c r="U14" t="s">
+        <v>522</v>
+      </c>
+      <c r="V14" t="s">
+        <v>551</v>
+      </c>
+      <c r="W14" t="s">
+        <v>576</v>
+      </c>
+      <c r="X14" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>630</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K15" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" t="s">
+        <v>268</v>
+      </c>
+      <c r="M15" t="s">
+        <v>297</v>
+      </c>
+      <c r="N15" t="s">
+        <v>324</v>
+      </c>
+      <c r="O15" t="s">
+        <v>351</v>
+      </c>
+      <c r="P15" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>408</v>
+      </c>
+      <c r="R15" t="s">
+        <v>436</v>
+      </c>
+      <c r="S15" t="s">
+        <v>464</v>
+      </c>
+      <c r="T15" t="s">
+        <v>493</v>
+      </c>
+      <c r="U15" t="s">
+        <v>523</v>
+      </c>
+      <c r="V15" t="s">
+        <v>261</v>
+      </c>
+      <c r="W15" t="s">
+        <v>577</v>
+      </c>
+      <c r="X15" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>610</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" t="s">
+        <v>269</v>
+      </c>
+      <c r="M16" t="s">
+        <v>298</v>
+      </c>
+      <c r="N16" t="s">
+        <v>325</v>
+      </c>
+      <c r="O16" t="s">
+        <v>352</v>
+      </c>
+      <c r="P16" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>409</v>
+      </c>
+      <c r="R16" t="s">
+        <v>437</v>
+      </c>
+      <c r="S16" t="s">
+        <v>465</v>
+      </c>
+      <c r="T16" t="s">
+        <v>494</v>
+      </c>
+      <c r="U16" t="s">
+        <v>524</v>
+      </c>
+      <c r="V16" t="s">
+        <v>552</v>
+      </c>
+      <c r="W16" t="s">
+        <v>578</v>
+      </c>
+      <c r="X16" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>657</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>682</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" t="s">
+        <v>217</v>
+      </c>
+      <c r="K17" t="s">
+        <v>244</v>
+      </c>
+      <c r="L17" t="s">
+        <v>270</v>
+      </c>
+      <c r="M17" t="s">
+        <v>299</v>
+      </c>
+      <c r="N17" t="s">
+        <v>326</v>
+      </c>
+      <c r="O17" t="s">
+        <v>353</v>
+      </c>
+      <c r="P17" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>410</v>
+      </c>
+      <c r="R17" t="s">
+        <v>438</v>
+      </c>
+      <c r="S17" t="s">
+        <v>466</v>
+      </c>
+      <c r="T17" t="s">
+        <v>495</v>
+      </c>
+      <c r="U17" t="s">
+        <v>525</v>
+      </c>
+      <c r="V17" t="s">
+        <v>553</v>
+      </c>
+      <c r="W17" t="s">
+        <v>579</v>
+      </c>
+      <c r="X17" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>617</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>218</v>
+      </c>
+      <c r="K18" t="s">
+        <v>237</v>
+      </c>
+      <c r="L18" t="s">
+        <v>271</v>
+      </c>
+      <c r="M18" t="s">
+        <v>300</v>
+      </c>
+      <c r="N18" t="s">
+        <v>327</v>
+      </c>
+      <c r="O18" t="s">
+        <v>354</v>
+      </c>
+      <c r="P18" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>411</v>
+      </c>
+      <c r="R18" t="s">
+        <v>439</v>
+      </c>
+      <c r="S18" t="s">
+        <v>467</v>
+      </c>
+      <c r="T18" t="s">
+        <v>496</v>
+      </c>
+      <c r="U18" t="s">
+        <v>526</v>
+      </c>
+      <c r="V18" t="s">
+        <v>554</v>
+      </c>
+      <c r="W18" t="s">
+        <v>580</v>
+      </c>
+      <c r="X18" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>631</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>659</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K19" t="s">
+        <v>245</v>
+      </c>
+      <c r="L19" t="s">
+        <v>272</v>
+      </c>
+      <c r="M19" t="s">
+        <v>301</v>
+      </c>
+      <c r="N19" t="s">
+        <v>326</v>
+      </c>
+      <c r="O19" t="s">
+        <v>355</v>
+      </c>
+      <c r="P19" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>412</v>
+      </c>
+      <c r="R19" t="s">
+        <v>440</v>
+      </c>
+      <c r="S19" t="s">
+        <v>468</v>
+      </c>
+      <c r="T19" t="s">
+        <v>497</v>
+      </c>
+      <c r="U19" t="s">
+        <v>527</v>
+      </c>
+      <c r="V19" t="s">
+        <v>555</v>
+      </c>
+      <c r="W19" t="s">
+        <v>581</v>
+      </c>
+      <c r="X19" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>632</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>660</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB19" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
+    <row r="20" spans="1:28">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>220</v>
+      </c>
+      <c r="K20" t="s">
+        <v>246</v>
+      </c>
+      <c r="L20" t="s">
+        <v>273</v>
+      </c>
+      <c r="M20" t="s">
+        <v>302</v>
+      </c>
+      <c r="N20" t="s">
+        <v>328</v>
+      </c>
+      <c r="O20" t="s">
+        <v>356</v>
+      </c>
+      <c r="P20" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>413</v>
+      </c>
+      <c r="R20" t="s">
+        <v>441</v>
+      </c>
+      <c r="S20" t="s">
+        <v>469</v>
+      </c>
+      <c r="T20" t="s">
+        <v>498</v>
+      </c>
+      <c r="U20" t="s">
+        <v>528</v>
+      </c>
+      <c r="V20" t="s">
+        <v>554</v>
+      </c>
+      <c r="W20" t="s">
+        <v>582</v>
+      </c>
+      <c r="X20" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>661</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>709</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" t="s">
+        <v>242</v>
+      </c>
+      <c r="L21" t="s">
+        <v>274</v>
+      </c>
+      <c r="M21" t="s">
+        <v>303</v>
+      </c>
+      <c r="N21" t="s">
+        <v>329</v>
+      </c>
+      <c r="O21" t="s">
+        <v>357</v>
+      </c>
+      <c r="P21" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>414</v>
+      </c>
+      <c r="R21" t="s">
+        <v>442</v>
+      </c>
+      <c r="S21" t="s">
+        <v>470</v>
+      </c>
+      <c r="T21" t="s">
+        <v>499</v>
+      </c>
+      <c r="U21" t="s">
+        <v>529</v>
+      </c>
+      <c r="V21" t="s">
+        <v>261</v>
+      </c>
+      <c r="W21" t="s">
+        <v>583</v>
+      </c>
+      <c r="X21" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>633</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>647</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>687</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>710</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
+    <row r="22" spans="1:28">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>247</v>
+      </c>
+      <c r="L22" t="s">
+        <v>275</v>
+      </c>
+      <c r="M22" t="s">
+        <v>304</v>
+      </c>
+      <c r="N22" t="s">
+        <v>330</v>
+      </c>
+      <c r="O22" t="s">
+        <v>339</v>
+      </c>
+      <c r="P22" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>415</v>
+      </c>
+      <c r="R22" t="s">
+        <v>443</v>
+      </c>
+      <c r="S22" t="s">
+        <v>471</v>
+      </c>
+      <c r="T22" t="s">
+        <v>500</v>
+      </c>
+      <c r="U22" t="s">
+        <v>530</v>
+      </c>
+      <c r="V22" t="s">
+        <v>556</v>
+      </c>
+      <c r="W22" t="s">
+        <v>584</v>
+      </c>
+      <c r="X22" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>634</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>662</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>688</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>235</v>
+      </c>
+      <c r="L23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M23" t="s">
+        <v>305</v>
+      </c>
+      <c r="N23" t="s">
+        <v>331</v>
+      </c>
+      <c r="O23" t="s">
+        <v>358</v>
+      </c>
+      <c r="P23" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>416</v>
+      </c>
+      <c r="R23" t="s">
+        <v>444</v>
+      </c>
+      <c r="S23" t="s">
+        <v>472</v>
+      </c>
+      <c r="T23" t="s">
+        <v>501</v>
+      </c>
+      <c r="U23" t="s">
+        <v>531</v>
+      </c>
+      <c r="V23" t="s">
+        <v>279</v>
+      </c>
+      <c r="W23" t="s">
+        <v>585</v>
+      </c>
+      <c r="X23" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>610</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>663</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>671</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s">
+        <v>277</v>
+      </c>
+      <c r="M24" t="s">
+        <v>306</v>
+      </c>
+      <c r="N24" t="s">
+        <v>332</v>
+      </c>
+      <c r="O24" t="s">
+        <v>359</v>
+      </c>
+      <c r="P24" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>417</v>
+      </c>
+      <c r="R24" t="s">
+        <v>445</v>
+      </c>
+      <c r="S24" t="s">
+        <v>306</v>
+      </c>
+      <c r="T24" t="s">
+        <v>502</v>
+      </c>
+      <c r="U24" t="s">
+        <v>532</v>
+      </c>
+      <c r="V24" t="s">
+        <v>557</v>
+      </c>
+      <c r="W24" t="s">
+        <v>585</v>
+      </c>
+      <c r="X24" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>689</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>712</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
+    <row r="25" spans="1:28">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s">
+        <v>278</v>
+      </c>
+      <c r="M25" t="s">
+        <v>307</v>
+      </c>
+      <c r="N25" t="s">
+        <v>333</v>
+      </c>
+      <c r="O25" t="s">
+        <v>360</v>
+      </c>
+      <c r="P25" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>418</v>
+      </c>
+      <c r="R25" t="s">
+        <v>446</v>
+      </c>
+      <c r="S25" t="s">
+        <v>473</v>
+      </c>
+      <c r="T25" t="s">
+        <v>503</v>
+      </c>
+      <c r="U25" t="s">
+        <v>533</v>
+      </c>
+      <c r="V25" t="s">
+        <v>558</v>
+      </c>
+      <c r="W25" t="s">
+        <v>572</v>
+      </c>
+      <c r="X25" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>713</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
+    <row r="26" spans="1:28">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M26" t="s">
+        <v>308</v>
+      </c>
+      <c r="N26" t="s">
+        <v>334</v>
+      </c>
+      <c r="O26" t="s">
+        <v>361</v>
+      </c>
+      <c r="P26" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>409</v>
+      </c>
+      <c r="R26" t="s">
+        <v>447</v>
+      </c>
+      <c r="S26" t="s">
+        <v>474</v>
+      </c>
+      <c r="T26" t="s">
+        <v>504</v>
+      </c>
+      <c r="U26" t="s">
+        <v>534</v>
+      </c>
+      <c r="V26" t="s">
+        <v>559</v>
+      </c>
+      <c r="W26" t="s">
+        <v>586</v>
+      </c>
+      <c r="X26" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>637</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>666</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>690</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
+    <row r="27" spans="1:28">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" t="s">
+        <v>227</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>280</v>
+      </c>
+      <c r="M27" t="s">
+        <v>309</v>
+      </c>
+      <c r="N27" t="s">
+        <v>333</v>
+      </c>
+      <c r="O27" t="s">
+        <v>362</v>
+      </c>
+      <c r="P27" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>418</v>
+      </c>
+      <c r="R27" t="s">
+        <v>276</v>
+      </c>
+      <c r="S27" t="s">
+        <v>475</v>
+      </c>
+      <c r="T27" t="s">
+        <v>505</v>
+      </c>
+      <c r="U27" t="s">
+        <v>535</v>
+      </c>
+      <c r="V27" t="s">
+        <v>560</v>
+      </c>
+      <c r="W27" t="s">
+        <v>577</v>
+      </c>
+      <c r="X27" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>638</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>667</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>715</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
+    <row r="28" spans="1:28">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" t="s">
+        <v>169</v>
+      </c>
+      <c r="I28" t="s">
+        <v>198</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s">
+        <v>251</v>
+      </c>
+      <c r="L28" t="s">
+        <v>281</v>
+      </c>
+      <c r="M28" t="s">
+        <v>310</v>
+      </c>
+      <c r="N28" t="s">
+        <v>335</v>
+      </c>
+      <c r="O28" t="s">
+        <v>363</v>
+      </c>
+      <c r="P28" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>419</v>
+      </c>
+      <c r="R28" t="s">
+        <v>447</v>
+      </c>
+      <c r="S28" t="s">
+        <v>476</v>
+      </c>
+      <c r="T28" t="s">
+        <v>506</v>
+      </c>
+      <c r="U28" t="s">
+        <v>536</v>
+      </c>
+      <c r="V28" t="s">
+        <v>561</v>
+      </c>
+      <c r="W28" t="s">
+        <v>587</v>
+      </c>
+      <c r="X28" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>716</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" t="s">
+        <v>199</v>
+      </c>
+      <c r="J29" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" t="s">
+        <v>311</v>
+      </c>
+      <c r="N29" t="s">
+        <v>336</v>
+      </c>
+      <c r="O29" t="s">
+        <v>364</v>
+      </c>
+      <c r="P29" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>420</v>
+      </c>
+      <c r="R29" t="s">
+        <v>448</v>
+      </c>
+      <c r="S29" t="s">
+        <v>477</v>
+      </c>
+      <c r="T29" t="s">
+        <v>507</v>
+      </c>
+      <c r="U29" t="s">
+        <v>537</v>
+      </c>
+      <c r="V29" t="s">
+        <v>562</v>
+      </c>
+      <c r="W29" t="s">
+        <v>588</v>
+      </c>
+      <c r="X29" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>672</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>717</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="30" spans="1:28">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" t="s">
+        <v>200</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>253</v>
+      </c>
+      <c r="L30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" t="s">
+        <v>312</v>
+      </c>
+      <c r="N30" t="s">
+        <v>337</v>
+      </c>
+      <c r="O30" t="s">
+        <v>365</v>
+      </c>
+      <c r="P30" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>421</v>
+      </c>
+      <c r="R30" t="s">
+        <v>449</v>
+      </c>
+      <c r="S30" t="s">
+        <v>478</v>
+      </c>
+      <c r="T30" t="s">
+        <v>508</v>
+      </c>
+      <c r="U30" t="s">
+        <v>538</v>
+      </c>
+      <c r="V30" t="s">
+        <v>563</v>
+      </c>
+      <c r="W30" t="s">
+        <v>589</v>
+      </c>
+      <c r="X30" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>647</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" t="s">
+        <v>231</v>
+      </c>
+      <c r="K31" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" t="s">
+        <v>313</v>
+      </c>
+      <c r="N31" t="s">
+        <v>321</v>
+      </c>
+      <c r="O31" t="s">
+        <v>351</v>
+      </c>
+      <c r="P31" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>422</v>
+      </c>
+      <c r="R31" t="s">
+        <v>450</v>
+      </c>
+      <c r="S31" t="s">
+        <v>479</v>
+      </c>
+      <c r="T31" t="s">
+        <v>509</v>
+      </c>
+      <c r="U31" t="s">
+        <v>539</v>
+      </c>
+      <c r="V31" t="s">
+        <v>564</v>
+      </c>
+      <c r="W31" t="s">
+        <v>590</v>
+      </c>
+      <c r="X31" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>642</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>693</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/2021-22_NBA_Team_Stats.xlsx
+++ b/2021-22_NBA_Team_Stats.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thops\OneDrive\Desktop\2023\github projects\NBA Drafted Player Impact\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D536C3-AC08-4B7E-99B0-93296F26C1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-22 Stats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2179,8 +2196,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2243,13 +2260,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2287,7 +2312,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2321,6 +2346,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2355,9 +2381,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2530,14 +2557,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2623,7 +2655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2709,7 +2741,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2795,7 +2827,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2881,7 +2913,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2967,7 +2999,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3053,7 +3085,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -3139,7 +3171,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -3225,7 +3257,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3311,7 +3343,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3397,7 +3429,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3483,7 +3515,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -3569,7 +3601,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -3655,7 +3687,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3741,7 +3773,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -3827,7 +3859,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3913,7 +3945,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3999,7 +4031,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -4085,7 +4117,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -4171,7 +4203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -4257,7 +4289,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4343,7 +4375,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -4429,7 +4461,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -4515,7 +4547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -4601,7 +4633,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -4687,7 +4719,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -4773,7 +4805,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -4859,7 +4891,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -4945,7 +4977,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -5031,7 +5063,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -5117,7 +5149,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
